--- a/documents/単体テスト仕様書_タスク一覧表示.xlsx
+++ b/documents/単体テスト仕様書_タスク一覧表示.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UN01\Downloads\単体テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\auttask\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756CDC3F-F9EC-4566-9CE0-62C43CBCCFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84283091-E4F7-4FBC-86A3-E3B78967FF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20085" windowHeight="10020" tabRatio="888" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書兼報告書" sheetId="166" r:id="rId1"/>
@@ -2009,8 +2009,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2021,6 +2039,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2028,42 +2055,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2084,35 +2075,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2120,14 +2114,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2485,7 +2485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -2505,70 +2505,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="P1" s="51"/>
+      <c r="P1" s="37"/>
       <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="51"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="66">
+      <c r="O2" s="46">
         <v>45581</v>
       </c>
-      <c r="P2" s="67"/>
+      <c r="P2" s="47"/>
       <c r="Q2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="65"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
@@ -2598,169 +2598,169 @@
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="40" t="s">
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
       <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="42"/>
+      <c r="S4" s="51"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="57"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="53"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="59"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="60"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="63"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="63"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="42"/>
       <c r="Q8" s="11"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="33"/>
       <c r="O9" s="34"/>
       <c r="P9" s="35"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="74"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="61"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="63"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="42"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
     </row>
     <row r="11" spans="1:19" ht="93.75" customHeight="1">
       <c r="A11" s="10">
@@ -2769,942 +2769,1126 @@
       <c r="B11" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="58" t="s">
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="63"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
     </row>
     <row r="12" spans="1:19" ht="94.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="58" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="O12" s="62"/>
-      <c r="P12" s="63"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="42"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
     </row>
     <row r="13" spans="1:19" ht="96.75" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="58" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="O13" s="62"/>
-      <c r="P13" s="63"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="42"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
     </row>
     <row r="14" spans="1:19" ht="94.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="58" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="O14" s="62"/>
-      <c r="P14" s="63"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="42"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
     </row>
     <row r="15" spans="1:19" ht="93" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="58" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="O15" s="62"/>
-      <c r="P15" s="63"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="42"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
     </row>
     <row r="16" spans="1:19" ht="95.25" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="58" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="O16" s="62"/>
-      <c r="P16" s="63"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="42"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="58" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="O17" s="62"/>
-      <c r="P17" s="63"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
     </row>
     <row r="18" spans="1:19" ht="30.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="58" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="O18" s="62"/>
-      <c r="P18" s="63"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="42"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
     </row>
     <row r="19" spans="1:19" ht="62.25" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="58" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="63"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="63"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="10">
         <v>2</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37" t="s">
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="61" t="s">
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="O22" s="62"/>
-      <c r="P22" s="63"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="63"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="42"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="63"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="42"/>
       <c r="Q24" s="10"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="63"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="42"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="63"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="42"/>
       <c r="Q26" s="10"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="63"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="42"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="63"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="42"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="63"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="42"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
     </row>
     <row r="30" spans="1:19" ht="30" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="63"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="42"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="63"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="42"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="42"/>
       <c r="Q32" s="10"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="42"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="63"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="42"/>
       <c r="Q34" s="10"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="63"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="42"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="63"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="42"/>
       <c r="Q36" s="10"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="63"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="42"/>
       <c r="Q37" s="10"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="63"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="42"/>
       <c r="Q38" s="10"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
     </row>
     <row r="39" spans="1:19" ht="30" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="63"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="42"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="63"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="42"/>
       <c r="Q40" s="10"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="63"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42"/>
       <c r="Q41" s="10"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="63"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="42"/>
       <c r="Q42" s="10"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="63"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="42"/>
       <c r="Q43" s="10"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="63"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="42"/>
       <c r="Q44" s="10"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="63"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="42"/>
       <c r="Q45" s="10"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="63"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="42"/>
       <c r="Q46" s="10"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="63"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="42"/>
       <c r="Q47" s="10"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="63"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="42"/>
       <c r="Q48" s="10"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="63"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="42"/>
       <c r="Q49" s="10"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="63"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="42"/>
       <c r="Q50" s="10"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="63"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="42"/>
       <c r="Q51" s="10"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="63"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="42"/>
       <c r="Q52" s="10"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="63"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="42"/>
       <c r="Q53" s="10"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="208">
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="N48:P48"/>
@@ -3729,190 +3913,6 @@
     <mergeCell ref="N31:P31"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3941,72 +3941,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="51"/>
+      <c r="P1" s="37"/>
       <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="51"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="66">
+      <c r="O2" s="46">
         <v>44771</v>
       </c>
-      <c r="P2" s="67"/>
+      <c r="P2" s="47"/>
       <c r="Q2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="65"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
@@ -4036,54 +4036,54 @@
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="40" t="s">
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
       <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="42"/>
+      <c r="S4" s="51"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="57"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="53"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="59"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
       <c r="A6" s="10">
@@ -4092,1025 +4092,1084 @@
       <c r="B6" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="58" t="s">
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="60"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
       <c r="Q6" s="11">
         <v>44771</v>
       </c>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="60"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="57"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="60"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="57"/>
       <c r="Q8" s="11"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="60"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="60"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="57"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="60"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="57"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="60"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68" t="s">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="58" t="s">
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="59"/>
-      <c r="P14" s="60"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="57"/>
       <c r="Q14" s="11">
         <v>44771</v>
       </c>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="60"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
       <c r="A16" s="10">
         <v>2</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="60"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="57"/>
       <c r="Q16" s="11">
         <v>44771</v>
       </c>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="57"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
     </row>
     <row r="18" spans="1:19" ht="30" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="60"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="57"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="60"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68" t="s">
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="58" t="s">
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="O20" s="59"/>
-      <c r="P20" s="60"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="57"/>
       <c r="Q20" s="11">
         <v>44771</v>
       </c>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="60"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="57"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
       <c r="A22" s="10">
         <v>3</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="60"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="57"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="60"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="57"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="60"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="57"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="60"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="57"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68" t="s">
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74" t="s">
         <v>279</v>
       </c>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="58" t="s">
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="59"/>
-      <c r="P26" s="60"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="57"/>
       <c r="Q26" s="11">
         <v>44771</v>
       </c>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="60"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="57"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
       <c r="A28" s="10">
         <v>4</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="60"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="57"/>
       <c r="Q28" s="11"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="60"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
     </row>
     <row r="30" spans="1:19" ht="30" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="60"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="57"/>
       <c r="Q30" s="11"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="60"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="57"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68" t="s">
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="58" t="s">
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="O32" s="59"/>
-      <c r="P32" s="60"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="57"/>
       <c r="Q32" s="11">
         <v>44771</v>
       </c>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="60"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="57"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>282</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="60"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="57"/>
       <c r="Q34" s="11"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="60"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="57"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="60"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="57"/>
       <c r="Q36" s="11"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="60"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="57"/>
       <c r="Q37" s="10"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68" t="s">
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="58" t="s">
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="O38" s="59"/>
-      <c r="P38" s="60"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="57"/>
       <c r="Q38" s="11">
         <v>44771</v>
       </c>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
     </row>
     <row r="39" spans="1:19" ht="30" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="58" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="59"/>
-      <c r="P39" s="60"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="60"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="57"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1">
       <c r="A41" s="10">
         <v>6</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="60"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="57"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="60"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="57"/>
       <c r="Q42" s="10"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="60"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="57"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="60"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="57"/>
       <c r="Q44" s="10"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68" t="s">
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="58" t="s">
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="O45" s="59"/>
-      <c r="P45" s="60"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="57"/>
       <c r="Q45" s="11">
         <v>44771</v>
       </c>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="60"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="57"/>
       <c r="Q46" s="10"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="R32:S32"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
     <mergeCell ref="N22:P22"/>
@@ -5135,114 +5194,55 @@
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="R17:S17"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -5438,8 +5438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF0E54D-A4D9-44E3-B6EE-E42B843E9008}">
   <dimension ref="A1:FR148"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
       <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
@@ -5644,38 +5644,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:174" ht="12.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
     </row>
     <row r="2" spans="1:174" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="16" t="s">

--- a/documents/単体テスト仕様書_タスク一覧表示.xlsx
+++ b/documents/単体テスト仕様書_タスク一覧表示.xlsx
@@ -5,23 +5,24 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\auttask\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user34\Documents\project\auttask\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84283091-E4F7-4FBC-86A3-E3B78967FF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB06AC1-01D4-416E-A24B-AA1F9A0CAEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20085" windowHeight="10020" tabRatio="888" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書兼報告書" sheetId="166" r:id="rId1"/>
-    <sheet name="サンプル" sheetId="167" r:id="rId2"/>
-    <sheet name="テストケースに記載する要素" sheetId="170" r:id="rId3"/>
-    <sheet name="テスト用語" sheetId="169" r:id="rId4"/>
-    <sheet name="テスト観点一覧" sheetId="168" r:id="rId5"/>
+    <sheet name="タスク一覧表示エビデンス" sheetId="171" r:id="rId2"/>
+    <sheet name="サンプル" sheetId="167" r:id="rId3"/>
+    <sheet name="テストケースに記載する要素" sheetId="170" r:id="rId4"/>
+    <sheet name="テスト用語" sheetId="169" r:id="rId5"/>
+    <sheet name="テスト観点一覧" sheetId="168" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">テスト観点一覧!$1:$2</definedName>
-    <definedName name="範囲１" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">テスト観点一覧!$1:$2</definedName>
+    <definedName name="範囲１" localSheetId="2">#REF!</definedName>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -1409,7 +1410,100 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>一覧表の上に
+[メニューへ戻る]
+[選択した項目を削除]
+ボタンがある</t>
+    <rPh sb="0" eb="3">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[メニューへ戻る]ボタンを押下する</t>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下時に画面が遷移することを確認する</t>
+    <rPh sb="3" eb="6">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面が表示される</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面の[タスク一覧]ボタンを押下する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A5SQLからauttask直下にある
+"auttask.sql"を全行実行する</t>
+    <rPh sb="14" eb="16">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゼンギョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク名列が上から
+"タスク1"
+"タスク2"
+"タスク3"
+"タスク4"
+"タスク5"
+と表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>カテゴリ列が上から
+"新商品A：開発プロジェクト"
 "新商品A：開発プロジェクト"
 "新商品A：開発プロジェクト"
 "既存商品B：改良プロジェクト"
@@ -1421,169 +1515,80 @@
     <rPh sb="6" eb="7">
       <t>ウエ</t>
     </rPh>
-    <rPh sb="77" eb="79">
+    <rPh sb="93" eb="95">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タスク名列が上から
-"タスク1"
-"タスク2"
-"タスク3"
-"タスク4"
+    <t>期限列が上から
+"2030-01-01"
+"2030-01-01"
+"(空欄)"
+"2030-01-01"
+"(空欄)"
 と表示されている</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>レツ</t>
+    <rPh sb="36" eb="38">
+      <t>クウラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>担当者情報列が上から
+"テスト用１"
+"テスト用１"
+"テスト用１"
+"テスト用２"
+"テスト用２"
+と表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータス情報列が上から
+"未着手"
+"未着手"
+"未着手"
+"着手"
+"完了"
+と表示されている</t>
+    <rPh sb="37" eb="39">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>メモ列が上から
+"テスト"
 "テスト"
 "テスト"
 "(空欄)"
 "(空欄)"
 と表示されている</t>
+    <rPh sb="28" eb="30">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"タスク１"と"タスク2"と"タスク3"のチェックボックスのみチェック可能になっている</t>
+    <rPh sb="35" eb="37">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"タスク１"と"タスク2"と"タスク3"の[編集する]ボタンのみ有効化されている</t>
     <rPh sb="22" eb="24">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>クウラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ステータス情報列が上から
-"未着手"
-"未着手"
-"着手"
-"完了"
-と表示されている</t>
-    <rPh sb="31" eb="33">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>担当者情報列が上から
-"テスト用１"
-"テスト用２"
-"テスト用３"
-"テスト用４"
-と表示されている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"タスク１"と"タスク2"のチェックボックスのみ
-チェック可能になっている</t>
-    <rPh sb="29" eb="31">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"タスク１"と"タスク2"の[編集する]ボタンのみ
-有効化されている</t>
-    <rPh sb="15" eb="17">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="32" eb="34">
       <t>ユウコウ</t>
     </rPh>
-    <rPh sb="28" eb="29">
+    <rPh sb="34" eb="35">
       <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一覧表の上に
-[メニューへ戻る]
-[選択した項目を削除]
-ボタンがある</t>
-    <rPh sb="0" eb="3">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[メニューへ戻る]ボタンを押下する</t>
-    <rPh sb="13" eb="15">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ボタン押下時に画面が遷移することを確認する</t>
-    <rPh sb="3" eb="6">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メニュー画面が表示される</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>期限列が上から
-"2030-01-01"
-"(空欄)"
-"2030-01-01"
-"(空欄)"
-と表示されている</t>
-    <rPh sb="23" eb="25">
-      <t>クウラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メニュー画面の[タスク一覧]ボタンを押下する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A5SQLからauttask直下にある
-"auttask.sql"を全行実行する</t>
-    <rPh sb="14" eb="16">
-      <t>チョッカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ゼンギョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2009,26 +2014,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2039,15 +2026,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2055,6 +2033,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2075,56 +2104,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2218,6 +2223,319 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8E39F6-E27E-E246-8FE3-90BED9D9CB7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="0"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF3270F-5A12-A941-E608-5F11F2250387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="0"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C583EC-4444-5A15-DDBD-A1BB2CA97178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28117800" y="0"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>115321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF3D463A-C697-1546-94A5-F9930BA08CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7543800"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>115321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC47C0E-A2E0-E874-37F8-A15F7D5D9B51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="7543800"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>115321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D39498C-6F38-6A64-8910-BF831F73CCF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="15087600"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>115321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766FE237-611E-F29B-FB4B-9CFCC5667D60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="15087600"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2485,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2505,70 +2823,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="37"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="P1" s="37"/>
+      <c r="P1" s="54"/>
       <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="37"/>
+      <c r="S1" s="54"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="37"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="46">
+      <c r="O2" s="71">
         <v>45581</v>
       </c>
-      <c r="P2" s="47"/>
+      <c r="P2" s="72"/>
       <c r="Q2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
@@ -2598,1113 +2916,1297 @@
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="49" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="49" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
       <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="51"/>
+      <c r="S4" s="42"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="54"/>
+      <c r="C5" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="59"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="68"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="42"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="68"/>
       <c r="Q8" s="11"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
+      <c r="C9" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="33"/>
       <c r="O9" s="34"/>
       <c r="P9" s="35"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="61"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="59"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="42"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="68"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-    </row>
-    <row r="11" spans="1:19" ht="93.75" customHeight="1">
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+    </row>
+    <row r="11" spans="1:19" ht="113.25" customHeight="1">
       <c r="A11" s="10">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="43" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="42"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-    </row>
-    <row r="12" spans="1:19" ht="94.5" customHeight="1">
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+    </row>
+    <row r="12" spans="1:19" ht="111" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="O12" s="41"/>
-      <c r="P12" s="42"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="O12" s="67"/>
+      <c r="P12" s="68"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-    </row>
-    <row r="13" spans="1:19" ht="96.75" customHeight="1">
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+    </row>
+    <row r="13" spans="1:19" ht="110.25" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="42"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-    </row>
-    <row r="14" spans="1:19" ht="94.5" customHeight="1">
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+    </row>
+    <row r="14" spans="1:19" ht="111" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="42"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="O14" s="67"/>
+      <c r="P14" s="68"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-    </row>
-    <row r="15" spans="1:19" ht="93" customHeight="1">
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+    </row>
+    <row r="15" spans="1:19" ht="112.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="42"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-    </row>
-    <row r="16" spans="1:19" ht="95.25" customHeight="1">
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+    </row>
+    <row r="16" spans="1:19" ht="111.75" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="42"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="42"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
     </row>
     <row r="18" spans="1:19" ht="30.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="O18" s="41"/>
-      <c r="P18" s="42"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="O18" s="67"/>
+      <c r="P18" s="68"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
     </row>
     <row r="19" spans="1:19" ht="62.25" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="42"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="O19" s="67"/>
+      <c r="P19" s="68"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="42"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="10">
         <v>2</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="42"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="62" t="s">
-        <v>318</v>
-      </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="42"/>
+      <c r="C22" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="O22" s="67"/>
+      <c r="P22" s="68"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="42"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="68"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="42"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="68"/>
       <c r="Q24" s="10"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="42"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="68"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="42"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="68"/>
       <c r="Q26" s="10"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="42"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="68"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="42"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="68"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="42"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="68"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
     </row>
     <row r="30" spans="1:19" ht="30" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="42"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="68"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="42"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="68"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="42"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="68"/>
       <c r="Q32" s="10"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="42"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="68"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="42"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="68"/>
       <c r="Q34" s="10"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="42"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="68"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="42"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="68"/>
       <c r="Q36" s="10"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="42"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="68"/>
       <c r="Q37" s="10"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="42"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="68"/>
       <c r="Q38" s="10"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
     </row>
     <row r="39" spans="1:19" ht="30" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="42"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="68"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="42"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="68"/>
       <c r="Q40" s="10"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="42"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="68"/>
       <c r="Q41" s="10"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="42"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="68"/>
       <c r="Q42" s="10"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="42"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="68"/>
       <c r="Q43" s="10"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="42"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="68"/>
       <c r="Q44" s="10"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="42"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="68"/>
       <c r="Q45" s="10"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="42"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="68"/>
       <c r="Q46" s="10"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="48"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="42"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="68"/>
       <c r="Q47" s="10"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="57"/>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="42"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="68"/>
       <c r="Q48" s="10"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
+      <c r="R48" s="57"/>
+      <c r="S48" s="57"/>
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="42"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="68"/>
       <c r="Q49" s="10"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="48"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="57"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="42"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="68"/>
       <c r="Q50" s="10"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="48"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="57"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="42"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="68"/>
       <c r="Q51" s="10"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="42"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="68"/>
       <c r="Q52" s="10"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="48"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="42"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="68"/>
       <c r="Q53" s="10"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="48"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="208">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
     <mergeCell ref="C53:G53"/>
     <mergeCell ref="H53:M53"/>
     <mergeCell ref="C4:G4"/>
@@ -3729,190 +4231,6 @@
     <mergeCell ref="H46:M46"/>
     <mergeCell ref="C45:G45"/>
     <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3922,6 +4240,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EA6AAC-E04A-4A61-8672-F4E3705A3290}">
+  <dimension ref="A45:A89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="U92" sqref="U92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A0C5C7-8C43-41C7-B130-D2EA20EAD818}">
   <dimension ref="A1:S46"/>
   <sheetViews>
@@ -3941,72 +4286,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="37"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="37"/>
+      <c r="P1" s="54"/>
       <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="37"/>
+      <c r="S1" s="54"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="65" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="37"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="46">
+      <c r="O2" s="71">
         <v>44771</v>
       </c>
-      <c r="P2" s="47"/>
+      <c r="P2" s="72"/>
       <c r="Q2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="39"/>
+      <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1">
       <c r="A3" s="5"/>
@@ -4036,54 +4381,54 @@
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="49" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="49" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
       <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="51"/>
+      <c r="S4" s="42"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="54"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="59"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
       <c r="A6" s="10">
@@ -4092,976 +4437,1133 @@
       <c r="B6" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="55" t="s">
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
       <c r="Q6" s="11">
         <v>44771</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="65"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="65"/>
       <c r="Q8" s="11"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="65"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="65"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="65"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74" t="s">
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="55" t="s">
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="65"/>
       <c r="Q14" s="11">
         <v>44771</v>
       </c>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="65"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
       <c r="A16" s="10">
         <v>2</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="65"/>
       <c r="Q16" s="11">
         <v>44771</v>
       </c>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="65"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
     </row>
     <row r="18" spans="1:19" ht="30" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="57"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="65"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="65"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74" t="s">
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="55" t="s">
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="O20" s="56"/>
-      <c r="P20" s="57"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="65"/>
       <c r="Q20" s="11">
         <v>44771</v>
       </c>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="65"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
       <c r="A22" s="10">
         <v>3</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="65"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="57"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="65"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="57"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="65"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="57"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="65"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="55" t="s">
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="57"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="65"/>
       <c r="Q26" s="11">
         <v>44771</v>
       </c>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="57"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="65"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
       <c r="A28" s="10">
         <v>4</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="57"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="65"/>
       <c r="Q28" s="11"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
     </row>
     <row r="30" spans="1:19" ht="30" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="57"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="65"/>
       <c r="Q30" s="11"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="57"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="65"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74" t="s">
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="55" t="s">
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="O32" s="56"/>
-      <c r="P32" s="57"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="65"/>
       <c r="Q32" s="11">
         <v>44771</v>
       </c>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="65"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>282</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="57"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="65"/>
       <c r="Q34" s="11"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="57"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="65"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="57"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="65"/>
       <c r="Q36" s="11"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="57"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="65"/>
       <c r="Q37" s="10"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74" t="s">
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="55" t="s">
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="O38" s="56"/>
-      <c r="P38" s="57"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="65"/>
       <c r="Q38" s="11">
         <v>44771</v>
       </c>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
     </row>
     <row r="39" spans="1:19" ht="30" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="55" t="s">
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="56"/>
-      <c r="P39" s="57"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="65"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="57"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="65"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1">
       <c r="A41" s="10">
         <v>6</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="57"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="65"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="57"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="65"/>
       <c r="Q42" s="10"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="57"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="65"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="57"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="65"/>
       <c r="Q44" s="10"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C45" s="74" t="s">
+      <c r="C45" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74" t="s">
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="55" t="s">
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="O45" s="56"/>
-      <c r="P45" s="57"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="65"/>
       <c r="Q45" s="11">
         <v>44771</v>
       </c>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="57"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="65"/>
       <c r="Q46" s="10"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="48"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="R45:S45"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="H43:M43"/>
     <mergeCell ref="N43:P43"/>
@@ -5086,163 +5588,6 @@
     <mergeCell ref="H25:M25"/>
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="R25:S25"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -5251,7 +5596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01856DC-DDB1-4BCC-A81E-55BADDF18AD4}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -5332,7 +5677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE8ECA2-2A3F-47A6-B4CF-9F5C2FFE66D5}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -5434,11 +5779,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF0E54D-A4D9-44E3-B6EE-E42B843E9008}">
   <dimension ref="A1:FR148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
       <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
